--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>3.875676665862682</v>
+        <v>4.992135481862261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>4.570246739591618</v>
+        <v>4.336191070405466</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>3.838167971691867</v>
+        <v>4.240101111211249</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>4.028098751281613</v>
+        <v>5.059314278662212</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>4.908057177504944</v>
+        <v>5.368216758212122</v>
       </c>
     </row>
   </sheetData>
